--- a/biology/Zoologie/Agouti_ponctué/Agouti_ponctué.xlsx
+++ b/biology/Zoologie/Agouti_ponctué/Agouti_ponctué.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Agouti_ponctu%C3%A9</t>
+          <t>Agouti_ponctué</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dasyprocta punctata · Agouti à points
 L'Agouti ponctué (Dasyprocta punctata) est une espèce de rongeur de la famille des Dasyproctidae qui se rencontre en Amérique du Sud et centrale du sud du Mexique au nord de l'Argentine, et qui a été introduit aux îles Caïmans, se trouve également dans la faune sauvage de l’Équateur.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Agouti_ponctu%C3%A9</t>
+          <t>Agouti_ponctué</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,12 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Nom scientifique : Dasyprocta punctata Gray, 1842
-Noms vulgaires (vulgarisation scientifique) : Agouti ponctué[2],[3] ou Agouti à points[4].
+Noms vulgaires (vulgarisation scientifique) : Agouti ponctué, ou Agouti à points.
 Nom vernaculaire (langage courant), pouvant désigner aussi d'autres espèces : agouti.</t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Agouti_ponctu%C3%A9</t>
+          <t>Agouti_ponctué</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dasyprocta punctata mesure de 40 à 62 cm avec une queue de un à 3,5 cm, pour un poids compris entre 1,3 et 4 kg. Son corps, élancé, est orange clair mêlé de nuances brunes ou noirâtres sur le dos. Le ventre est blanc ou jaunâtre.
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Agouti_ponctu%C3%A9</t>
+          <t>Agouti_ponctué</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Régime alimentaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dasyprocta punctata est essentiellement frugivore et enterre régulièrement des provisions, ce qui le rend utile à la dispersion des espèces végétales.
 </t>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Agouti_ponctu%C3%A9</t>
+          <t>Agouti_ponctué</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,9 +625,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (16 mai 2013)[5], ce mammifère est représenté par 19 sous-espèces :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (16 mai 2013), ce mammifère est représenté par 19 sous-espèces :
 Dasyprocta punctata bellula ;
 Dasyprocta punctata boliviae ;
 Dasyprocta punctata callida ;
